--- a/biology/Médecine/Automatisation_des_listes/Automatisation_des_listes.xlsx
+++ b/biology/Médecine/Automatisation_des_listes/Automatisation_des_listes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'automatisation des listes (ADELI) est un traitement utilisé en France pour la gestion de l'enregistrement et des listes départementales des personnes dont les  professions sont réglementées par le Code de la santé publique.
 </t>
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le répertoire ADELI utilise un système d'informations basé sur le recensement des coordonnées professionnelles des acteurs de santé dans chaque département, ainsi que de leurs lieux d'exercice et de leurs diplômes, qu'ils pratiquent en secteur libéral ou salarial.
 Le répertoire ADELI recense  les   assistants de service social, audio-prothésistes ,  diététiciens, épithésistes, ergothérapeutes, infirmiers,  infirmiers psychiatriques, manipulateurs en radiologie, masseurs-kinésithérapeutes, ocularistes, opticiens-lunetiers, orthopédistes-orthésistes, orthophonistes, orthoprothésistes, orthoptistes, pédicures-podologues, podo-orthésistes, psychomotriciens, psychologues et techniciens de laboratoire.
@@ -545,7 +559,9 @@
           <t>Cadre légal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inscription au répertoire ADELI a été rendue obligatoire pour chacun de ces professionnels auprès des délégations départementales des Agences régionales de santé par l'arrêté du 12 juillet 2012 (relatif à la mise en place d'un traitement de données à caractère personnel dénommé ADELI de gestion de l'enregistrement et des listes départementales de certaines professions et usages de titres professionnels) afin de pouvoir exercer, à l'exception des professionnels exerçant dans l'Armée française. 
 L'inscription au répertoire ADELI identifie le professionnel par un numéro d'exercice nécessaire pour l'identifier auprès de la CPAM ou sur tout document (ordonnances, courriers, feuilles de remboursement) rédigé en tant que praticien.
@@ -578,7 +594,9 @@
           <t>Utilisation en cas de catastrophe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le répertoire ADELI peut être utilisé comme annuaire en cas de déclenchement d'un plan d'urgence comme le plan ORSEC.
 </t>
@@ -609,9 +627,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le répertoire ADELI basculera en totalité sur le Répertoire partagé des professionnels de santé (RPPS) mi-2022[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le répertoire ADELI basculera en totalité sur le Répertoire partagé des professionnels de santé (RPPS) mi-2022
 </t>
         </is>
       </c>
